--- a/docs/assets/disciplinas/LOQ4092.xlsx
+++ b/docs/assets/disciplinas/LOQ4092.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>O conhecimento em assuntos que abordam os avanços na prevenção e controle da poluição. Discussões sobre a possibilidade de compensação das emissões, a inclusão de novas fontes, desde que protegidos os padrões de qualidade do ar, mostrar como algumas das melhores empresas mundiais estão aumentando a sua produtividade e os lucros com programas que também estão contribuindo para reduzir as emissões de poluentes são temas relevantes do futuro profissional. Demonstrar com exemplos práticos e as medidas tecnológicas adotadas em diversos setores da economia, como é possível aumentar a produtividade e a otimização dos lucros e, ainda, atingir a ecoeficiência.</t>
+    <t>2346890 - Eliane Corrêa Pedrozo</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -76,13 +76,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>2346890 - Eliane Corrêa Pedrozo</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Apresentar os conceitos de ecoeficiência; tecnologias mais limpas; análise de ciclo de vida; desempenho ambiental; marketing ambiental; designer ambiental e contabilidade ambiental, aplicação e discussão de casos reais.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>Método:</t>
+  </si>
+  <si>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Seminário em grupo sobre um estudo de caso apresentado pelos alunos.
@@ -105,30 +105,18 @@
 Prova escrita.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média Final = 0,4 x Nota da Prova + 0,2 x Nota dos exercícios + 0,4 x Nota do Seminário
 Média Final Mínima para Aprovação = 5,0</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Nota Final = (Prova Escrita + Média final)/2
 Nota Final Mínima para Aprovação = 5,0</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1)Biagio F. Giannetti, Cecília M. V. B. Almeida, Ecologia Industrial Conceitos, Ferramentas e Aplicações, 1ª Edição, Edgard Blucher, 2006, 128 p.
-2)Joseph J. Romm, Empresas Eco-Eficientes, 1ª Edição, Signus Editora, 2004.
-3)SALGADO, VIVIAN GULLO, Indicadores de ecoeficiência e o transporte de gás natural, 1ª Edição, Editora Interciencia, 2007, 117 p.
-4)Canadian centre for pollution prevention (CCPP). Pollution Prevention Program Manual: P2 Planing and Beyond. Ontário (Canada): CCPP. 2001.
-5)Canadian standards association. A guide to public involvement. Ontario (Canada): Etobicoke, 1996.
-6)Sites: Association of chartered certified accountants (ACCA). Environmental, social and sustainability reporting on the world wide web: a guide to best practice. 2001 London: ACCA. Disponível em URL:http://www.accaglobal.com. Cowell, S. J. LCANET Theme Report: Positioning and Applications of LCA. Leiden (Holanda):Leiden University. 1997. Disponível em http://www.leidenuniv.nl/ Department for environment, food and rural affairs (DEFRA). Environmental reporting  general guidelines. London: DEFRA Publications. 2001. Disponível em http://www.defra.gov.uk. European commission. Integrated Pollution Prevention and Control (IPPC) Reference Document on Best Available Techniques. Sevilha (Espanha): European Commission, Joint Research Centre, Institute for Prospective Technological Studies Competitiveness and Sustainability Unit. 2001. Disponível em http://eippcb.jrc.es/reference. European environmental agency (EEA). Making Sustainability Accountable: Ecoefficiency, Resource Productivity and Innovation. In: Workshop on the fifth anniversary of the European environmental agency. 1998. Copenhague. Proceedings. Copenhague: EEA. 1998. Cleaner production. Cleaner production implementation. Copenhague: EEA: 2001. Disponível em URL:http://service.eea.int/envirowindows. Institute for global communications (IGC). Are business and industry taking sustainability seriously? San Francisco: IGC. 2001. Disponível em URL:http://www.igc.org/. International network for environmental management (INEM). The INEM sustainability reporting guide. Hamburg (Germany): INEM, 2001 Disponível em URL: http://www.inem.org/
-7)Piotto, Z. C. Eco-eficiência na Indústria de Celulose e Papel - Estudo de Caso. 2003. 379 p. Tese (Doutorado) - Escola Politécnica, Universidade de São Paulo, São Paulo, 2003.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,28 +598,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -639,14 +630,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -671,7 +668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -682,28 +679,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4092.xlsx
+++ b/docs/assets/disciplinas/LOQ4092.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,19 +67,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>O conhecimento em assuntos que abordam os avanços na prevenção e controle da poluição. Discussões sobre a possibilidade de compensação das emissões, a inclusão de novas fontes, desde que protegidos os padrões de qualidade do ar, mostrar como algumas das melhores empresas mundiais estão aumentando a sua produtividade e os lucros com programas que também estão contribuindo para reduzir as emissões de poluentes são temas relevantes do futuro profissional. Demonstrar com exemplos práticos e as medidas tecnológicas adotadas em diversos setores da economia, como é possível aumentar a produtividade e a otimização dos lucros e, ainda, atingir a ecoeficiência.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>2346890 - Eliane Corrêa Pedrozo</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Apresentar os conceitos de ecoeficiência; tecnologias mais limpas; análise de ciclo de vida; desempenho ambiental; marketing ambiental; designer ambiental e contabilidade ambiental, aplicação e discussão de casos reais.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Método:</t>
-  </si>
-  <si>
-    <t>Critério:</t>
   </si>
   <si>
     <t>Seminário em grupo sobre um estudo de caso apresentado pelos alunos.
@@ -105,18 +105,30 @@
 Prova escrita.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Média Final = 0,4 x Nota da Prova + 0,2 x Nota dos exercícios + 0,4 x Nota do Seminário
 Média Final Mínima para Aprovação = 5,0</t>
   </si>
   <si>
-    <t>Bibliografia:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Nota Final = (Prova Escrita + Média final)/2
 Nota Final Mínima para Aprovação = 5,0</t>
+  </si>
+  <si>
+    <t>Bibliografia:</t>
+  </si>
+  <si>
+    <t>1)Biagio F. Giannetti, Cecília M. V. B. Almeida, Ecologia Industrial Conceitos, Ferramentas e Aplicações, 1ª Edição, Edgard Blucher, 2006, 128 p.
+2)Joseph J. Romm, Empresas Eco-Eficientes, 1ª Edição, Signus Editora, 2004.
+3)SALGADO, VIVIAN GULLO, Indicadores de ecoeficiência e o transporte de gás natural, 1ª Edição, Editora Interciencia, 2007, 117 p.
+4)Canadian centre for pollution prevention (CCPP). Pollution Prevention Program Manual: P2 Planing and Beyond. Ontário (Canada): CCPP. 2001.
+5)Canadian standards association. A guide to public involvement. Ontario (Canada): Etobicoke, 1996.
+6)Sites: Association of chartered certified accountants (ACCA). Environmental, social and sustainability reporting on the world wide web: a guide to best practice. 2001 London: ACCA. Disponível em URL:http://www.accaglobal.com. Cowell, S. J. LCANET Theme Report: Positioning and Applications of LCA. Leiden (Holanda):Leiden University. 1997. Disponível em http://www.leidenuniv.nl/ Department for environment, food and rural affairs (DEFRA). Environmental reporting  general guidelines. London: DEFRA Publications. 2001. Disponível em http://www.defra.gov.uk. European commission. Integrated Pollution Prevention and Control (IPPC) Reference Document on Best Available Techniques. Sevilha (Espanha): European Commission, Joint Research Centre, Institute for Prospective Technological Studies Competitiveness and Sustainability Unit. 2001. Disponível em http://eippcb.jrc.es/reference. European environmental agency (EEA). Making Sustainability Accountable: Ecoefficiency, Resource Productivity and Innovation. In: Workshop on the fifth anniversary of the European environmental agency. 1998. Copenhague. Proceedings. Copenhague: EEA. 1998. Cleaner production. Cleaner production implementation. Copenhague: EEA: 2001. Disponível em URL:http://service.eea.int/envirowindows. Institute for global communications (IGC). Are business and industry taking sustainability seriously? San Francisco: IGC. 2001. Disponível em URL:http://www.igc.org/. International network for environmental management (INEM). The INEM sustainability reporting guide. Hamburg (Germany): INEM, 2001 Disponível em URL: http://www.inem.org/
+7)Piotto, Z. C. Eco-eficiência na Indústria de Celulose e Papel - Estudo de Caso. 2003. 379 p. Tese (Doutorado) - Escola Politécnica, Universidade de São Paulo, São Paulo, 2003.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -598,31 +610,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -630,20 +639,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -668,7 +671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -679,17 +682,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
